--- a/网址-炳洲.xlsx
+++ b/网址-炳洲.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
   <si>
     <t>VENDOR</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>2017-11-14:iframe会遇到SSL错误</t>
+  </si>
+  <si>
+    <t>2017-11-15:页面有交互，pdf展示不全</t>
   </si>
   <si>
     <t>慢</t>
@@ -686,14 +689,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,13 +744,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -771,57 +760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,30 +775,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -874,9 +791,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,7 +827,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -935,13 +924,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,55 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,73 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,6 +1027,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,6 +1155,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1176,21 +1180,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,191 +1220,190 @@
     </border>
   </borders>
   <cellStyleXfs count="51">
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1773,759 +1761,759 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="16.5" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
         <v>2924</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>90</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
         <v>1698</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>73</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>89</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>109</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>102</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>117</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>79</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
         <v>800</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>93</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
         <v>600</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>42</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>46</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>47</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>48</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>53</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>56</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>61</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:6">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>71</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:6">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>77</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:6">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>86</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>88</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:6">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>96</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:6">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>100</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="E33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>101</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="9">
+      <c r="E34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:6">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>111</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:6">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>115</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="E36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:6">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>123</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="E37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:6">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>124</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8">
         <v>500</v>
       </c>
     </row>
@@ -2585,679 +2573,679 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="16.5" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
         <v>3378</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
         <v>2500</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
         <v>2375</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
         <v>2237</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
         <v>1872</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>73</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
         <v>1694</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
         <v>1500</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
         <v>1462</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>75</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
         <v>1120</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>76</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
         <v>1100</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
         <v>1050</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
         <v>1000</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7">
         <v>1000</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
         <v>1000</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
         <v>960</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="D17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
         <v>897</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>54</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="D18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
         <v>888</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>72</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="D19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
         <v>863</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>25</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="D20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
         <v>800</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>74</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="D21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7">
         <v>720</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>37</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="D22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7">
         <v>702</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="D23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="D24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="D26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7">
         <v>568</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:6">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="D27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7">
         <v>555</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="D28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:6">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>3</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="D29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:6">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="D30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="D31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:6">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>64</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:6">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>66</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:6">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>1</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="12">
+      <c r="D34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11">
         <v>200</v>
       </c>
     </row>
@@ -3294,379 +3282,379 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="16.5" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
         <v>3600</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
         <v>3000</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>73</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>106</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
         <v>1000</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>133</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
         <v>800</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
         <v>750</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
         <v>650</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>60</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>82</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9">
         <v>500</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>91</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>97</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>99</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>103</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>117</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9">
         <v>500</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>126</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8">
         <v>500</v>
       </c>
     </row>
@@ -3702,7 +3690,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -3710,25 +3698,23 @@
     <col min="2" max="2" width="24.9" customWidth="1"/>
     <col min="3" max="3" width="44.2" customWidth="1"/>
     <col min="7" max="7" width="10.4" customWidth="1"/>
-    <col min="12" max="12" width="8.8" style="1"/>
     <col min="13" max="13" width="38.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="16.5" spans="2:13">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -3746,7 +3732,7 @@
       <c r="K1" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>206</v>
       </c>
       <c r="M1" t="s">
@@ -3754,22 +3740,22 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
         <v>3378</v>
       </c>
       <c r="G2">
@@ -3784,7 +3770,7 @@
       <c r="K2" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>211</v>
       </c>
       <c r="M2" t="s">
@@ -3792,58 +3778,57 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="3">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
         <v>2500</v>
       </c>
       <c r="G3">
         <v>2395</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
         <v>3600</v>
       </c>
       <c r="G4">
@@ -3860,22 +3845,22 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:13">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
         <v>2375</v>
       </c>
       <c r="G5">
@@ -3894,46 +3879,55 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
-      <c r="A6" s="3">
+    <row r="6" ht="16.5" spans="1:13">
+      <c r="A6" s="2">
         <v>71</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
         <v>2237</v>
+      </c>
+      <c r="G6">
+        <v>1096</v>
+      </c>
+      <c r="H6" t="s">
+        <v>208</v>
       </c>
       <c r="I6" t="s">
         <v>209</v>
       </c>
+      <c r="M6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" ht="16.5" spans="1:9">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
         <v>1872</v>
       </c>
       <c r="I7" t="s">
@@ -3941,22 +3935,22 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:9">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>73</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
         <v>1694</v>
       </c>
       <c r="I8" t="s">
@@ -3964,74 +3958,80 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
         <v>1500</v>
       </c>
       <c r="J9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:10">
-      <c r="A10" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:11">
+      <c r="A10" s="2">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
         <v>1462</v>
       </c>
       <c r="G10">
-        <v>792</v>
+        <v>629</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
       </c>
       <c r="I10" t="s">
         <v>213</v>
       </c>
       <c r="J10" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="K10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>75</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
         <v>1120</v>
       </c>
       <c r="G11">
@@ -4039,74 +4039,80 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:10">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>76</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
         <v>1100</v>
+      </c>
+      <c r="G12">
+        <v>298</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
       </c>
       <c r="I12" t="s">
         <v>213</v>
       </c>
       <c r="J12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:10">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
         <v>1050</v>
       </c>
       <c r="I13" t="s">
         <v>213</v>
       </c>
       <c r="J13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:9">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7">
         <v>1000</v>
       </c>
       <c r="G14">
@@ -4120,42 +4126,42 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
         <v>1000</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -4173,8 +4179,8 @@
     <hyperlink ref="C7" r:id="rId10" display="http://www.johnrichard.com/our-products.html" tooltip="http://www.johnrichard.com/our-products.html"/>
     <hyperlink ref="C8" r:id="rId11" display="http://swaim-inc.com/collections"/>
     <hyperlink ref="C10" r:id="rId12" display="http://www.coasttocoastaccents.com/c-130-accent-tables.aspx" tooltip="http://www.coasttocoastaccents.com/c-130-accent-tables.aspx"/>
-    <hyperlink ref="C12" r:id="rId13" display="http://www.thayercoggin.com/sofagallery1.html"/>
-    <hyperlink ref="C13" r:id="rId14" display="http://noirfurniturela.com/product"/>
+    <hyperlink ref="C12" r:id="rId13" display="http://www.thayercoggin.com/sofagallery1.html" tooltip="http://www.thayercoggin.com/sofagallery1.html"/>
+    <hyperlink ref="C13" r:id="rId14" display="http://noirfurniturela.com/product" tooltip="http://noirfurniturela.com/product"/>
     <hyperlink ref="C14" r:id="rId15" display="http://www.arthomefurnishings.com/collections" tooltip="http://www.arthomefurnishings.com/collections"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
